--- a/Data/Data-99/Data/HP_new.xlsx
+++ b/Data/Data-99/Data/HP_new.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>476.882693779821</v>
+        <v>225.9826229908491</v>
       </c>
       <c r="C7">
-        <v>298.176948790189</v>
+        <v>612.0147791466122</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -534,16 +534,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>225.9826229908491</v>
+        <v>226.6542022576298</v>
       </c>
       <c r="C8">
-        <v>612.0147791466122</v>
+        <v>551.9796930314008</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>226.6542022576298</v>
+        <v>2.496880106782129</v>
       </c>
       <c r="C9">
-        <v>551.9796930314008</v>
+        <v>654.5719109693968</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.496880106782129</v>
+        <v>-112.5986211250799</v>
       </c>
       <c r="C10">
-        <v>654.5719109693968</v>
+        <v>497.8476242248963</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-112.5986211250799</v>
+        <v>93.53914017595926</v>
       </c>
       <c r="C11">
-        <v>497.8476242248963</v>
+        <v>811.3670083634036</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -614,16 +614,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>93.53914017595926</v>
+        <v>1112.918630353059</v>
       </c>
       <c r="C12">
-        <v>811.3670083634036</v>
+        <v>675.2612599629786</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -634,16 +634,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1112.918630353059</v>
+        <v>1251.322784411432</v>
       </c>
       <c r="C13">
-        <v>675.2612599629786</v>
+        <v>606.0157657881749</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1251.322784411432</v>
+        <v>1173.813650699704</v>
       </c>
       <c r="C14">
-        <v>606.0157657881749</v>
+        <v>604.7401608743506</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -674,16 +674,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1173.813650699704</v>
+        <v>1866.252189126549</v>
       </c>
       <c r="C15">
-        <v>604.7401608743506</v>
+        <v>556.9462084127753</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1623.019793626647</v>
+        <v>1893.954414435207</v>
       </c>
       <c r="C16">
-        <v>609.936133958244</v>
+        <v>432.7085293632764</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -714,13 +714,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1866.252189126549</v>
+        <v>2041.844878090921</v>
       </c>
       <c r="C17">
-        <v>556.9462084127753</v>
+        <v>556.8379770101558</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -734,16 +734,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1893.954414435207</v>
+        <v>2005.194638265958</v>
       </c>
       <c r="C18">
-        <v>432.7085293632764</v>
+        <v>550.0584890965071</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1782.390225709137</v>
+        <v>2041.572899558639</v>
       </c>
       <c r="C19">
-        <v>453.6892627024459</v>
+        <v>572.688271862033</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2041.844878090921</v>
+        <v>1939.626422736799</v>
       </c>
       <c r="C20">
-        <v>556.8379770101558</v>
+        <v>462.4361901192972</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -794,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2005.194638265958</v>
+        <v>227.1640414594496</v>
       </c>
       <c r="C21">
-        <v>550.0584890965071</v>
+        <v>46.15414507043465</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -814,13 +814,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1961.512865009518</v>
+        <v>134.2800220237448</v>
       </c>
       <c r="C22">
-        <v>362.4969631031332</v>
+        <v>229.9183028768964</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -834,16 +834,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2041.572899558639</v>
+        <v>730.74625820706</v>
       </c>
       <c r="C23">
-        <v>572.688271862033</v>
+        <v>969.0608671386444</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -854,16 +854,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1939.626422736799</v>
+        <v>635.27508437648</v>
       </c>
       <c r="C24">
-        <v>462.4361901192972</v>
+        <v>983.5433817720594</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>227.1640414594496</v>
+        <v>810.0309784417675</v>
       </c>
       <c r="C25">
-        <v>46.15414507043465</v>
+        <v>1042.945700664469</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>428.6137213992565</v>
+        <v>715.930042585417</v>
       </c>
       <c r="C26">
-        <v>137.2447289794667</v>
+        <v>1063.290563635835</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>347.1953903469697</v>
+        <v>745.4575386540172</v>
       </c>
       <c r="C27">
-        <v>152.622726584668</v>
+        <v>1230.407819684683</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>134.2800220237448</v>
+        <v>901.1008306191716</v>
       </c>
       <c r="C28">
-        <v>229.9183028768964</v>
+        <v>1224.930149293867</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -954,16 +954,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>730.74625820706</v>
+        <v>633.3964144775703</v>
       </c>
       <c r="C29">
-        <v>969.0608671386444</v>
+        <v>1129.630227758317</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>635.27508437648</v>
+        <v>240.7369244716749</v>
       </c>
       <c r="C30">
-        <v>983.5433817720594</v>
+        <v>1944.548553124474</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -994,16 +994,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>810.0309784417675</v>
+        <v>224.9797289685401</v>
       </c>
       <c r="C31">
-        <v>1042.945700664469</v>
+        <v>2134.175095118189</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>715.930042585417</v>
+        <v>229.3382212074227</v>
       </c>
       <c r="C32">
-        <v>1063.290563635835</v>
+        <v>1927.12888348419</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>845.7683010886983</v>
+        <v>171.8023021899952</v>
       </c>
       <c r="C33">
-        <v>1120.723626006876</v>
+        <v>1965.561557291335</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>745.4575386540172</v>
+        <v>311.131643163798</v>
       </c>
       <c r="C34">
-        <v>1230.407819684683</v>
+        <v>2079.385431557277</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -1074,13 +1074,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>901.1008306191716</v>
+        <v>58.83057208390355</v>
       </c>
       <c r="C35">
-        <v>1224.930149293867</v>
+        <v>1938.961051859795</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -1094,10 +1094,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>633.3964144775703</v>
+        <v>295.8104863791473</v>
       </c>
       <c r="C36">
-        <v>1129.630227758317</v>
+        <v>2055.84937198967</v>
       </c>
       <c r="D36">
         <v>42</v>
@@ -1114,13 +1114,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>240.7369244716749</v>
+        <v>230.4266058410051</v>
       </c>
       <c r="C37">
-        <v>1944.548553124474</v>
+        <v>284.6034090734202</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -1134,13 +1134,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>224.9797289685401</v>
+        <v>88.20584016738025</v>
       </c>
       <c r="C38">
-        <v>2134.175095118189</v>
+        <v>130.8861033632796</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -1154,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>229.3382212074227</v>
+        <v>218.7936696364852</v>
       </c>
       <c r="C39">
-        <v>1927.12888348419</v>
+        <v>147.7941663709773</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -1174,16 +1174,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>171.8023021899952</v>
+        <v>109.7666016756388</v>
       </c>
       <c r="C40">
-        <v>1965.561557291335</v>
+        <v>56.20222702631256</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>311.131643163798</v>
+        <v>228.8250525430926</v>
       </c>
       <c r="C41">
-        <v>2079.385431557277</v>
+        <v>52.88963965596803</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -1214,13 +1214,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>58.83057208390355</v>
+        <v>291.439124796054</v>
       </c>
       <c r="C42">
-        <v>1938.961051859795</v>
+        <v>319.6958936896191</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -1234,13 +1234,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>194.0494960393973</v>
+        <v>1797.630817381826</v>
       </c>
       <c r="C43">
-        <v>2083.286608712086</v>
+        <v>869.9616142756054</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -1254,13 +1254,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>295.8104863791473</v>
+        <v>1802.412569032037</v>
       </c>
       <c r="C44">
-        <v>2055.84937198967</v>
+        <v>1057.143926980105</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>-1</v>
@@ -1274,16 +1274,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>230.4266058410051</v>
+        <v>1847.905261289569</v>
       </c>
       <c r="C45">
-        <v>284.6034090734202</v>
+        <v>965.5278097230306</v>
       </c>
       <c r="D45">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>88.20584016738025</v>
+        <v>2138.540861147577</v>
       </c>
       <c r="C46">
-        <v>130.8861033632796</v>
+        <v>842.1805910414276</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -1314,16 +1314,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>147.7898551726359</v>
+        <v>1820.048372764555</v>
       </c>
       <c r="C47">
-        <v>40.51091733255528</v>
+        <v>929.764951393398</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1334,16 +1334,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>218.7936696364852</v>
+        <v>1844.341104870128</v>
       </c>
       <c r="C48">
-        <v>147.7941663709773</v>
+        <v>1115.561342403251</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>109.7666016756388</v>
+        <v>1922.655354502736</v>
       </c>
       <c r="C49">
-        <v>56.20222702631256</v>
+        <v>851.4276497516292</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>228.8250525430926</v>
+        <v>906.4149163264098</v>
       </c>
       <c r="C50">
-        <v>52.88963965596803</v>
+        <v>1611.826748545108</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>291.439124796054</v>
+        <v>861.8364959335245</v>
       </c>
       <c r="C51">
-        <v>319.6958936896191</v>
+        <v>1781.428294900318</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1797.630817381826</v>
+        <v>917.6029384412733</v>
       </c>
       <c r="C52">
-        <v>869.9616142756054</v>
+        <v>1573.758148418901</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E52">
         <v>-1</v>
@@ -1434,16 +1434,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1802.412569032037</v>
+        <v>881.2326280896019</v>
       </c>
       <c r="C53">
-        <v>1057.143926980105</v>
+        <v>1750.132776124347</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1847.905261289569</v>
+        <v>1008.335962790732</v>
       </c>
       <c r="C54">
-        <v>965.5278097230306</v>
+        <v>1621.046453318581</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -1474,16 +1474,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1820.607412884034</v>
+        <v>908.6302996066637</v>
       </c>
       <c r="C55">
-        <v>1105.73580847425</v>
+        <v>1814.341459220264</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E55">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2138.540861147577</v>
+        <v>973.7935577605058</v>
       </c>
       <c r="C56">
-        <v>842.1805910414276</v>
+        <v>1856.101851607292</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E56">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1894.042291983106</v>
+        <v>1043.913302639763</v>
       </c>
       <c r="C57">
-        <v>1114.217254283099</v>
+        <v>1792.911839988134</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -1534,13 +1534,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1820.048372764555</v>
+        <v>1034.30976982916</v>
       </c>
       <c r="C58">
-        <v>929.764951393398</v>
+        <v>1609.358215624813</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -1554,19 +1554,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1844.341104870128</v>
+        <v>-48.63375079085293</v>
       </c>
       <c r="C59">
-        <v>1115.561342403251</v>
+        <v>886.9919019322601</v>
       </c>
       <c r="D59">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1922.655354502736</v>
+        <v>1884.018580421425</v>
       </c>
       <c r="C60">
-        <v>851.4276497516292</v>
+        <v>1033.788294168268</v>
       </c>
       <c r="D60">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>906.4149163264098</v>
+        <v>887.0112444025577</v>
       </c>
       <c r="C61">
-        <v>1611.826748545108</v>
+        <v>1702.615626336732</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E61">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>861.8364959335245</v>
+        <v>120.5691885786886</v>
       </c>
       <c r="C62">
-        <v>1781.428294900318</v>
+        <v>2041.417375547623</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>917.6029384412733</v>
+        <v>1737.594985351103</v>
       </c>
       <c r="C63">
-        <v>1573.758148418901</v>
+        <v>456.4257392289845</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>881.2326280896019</v>
+        <v>845.7683010886983</v>
       </c>
       <c r="C64">
-        <v>1750.132776124347</v>
+        <v>1120.723626006876</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1008.335962790732</v>
+        <v>849.9216532965038</v>
       </c>
       <c r="C65">
-        <v>1621.046453318581</v>
+        <v>1111.058106247871</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>908.6302996066637</v>
+        <v>99.04566528353303</v>
       </c>
       <c r="C66">
-        <v>1814.341459220264</v>
+        <v>175.0360801760253</v>
       </c>
       <c r="D66">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>973.7935577605058</v>
+        <v>2018.702668083155</v>
       </c>
       <c r="C67">
-        <v>1856.101851607292</v>
+        <v>403.2865789604879</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1043.913302639763</v>
+        <v>1236.082997412534</v>
       </c>
       <c r="C68">
-        <v>1792.911839988134</v>
+        <v>623.3994890920609</v>
       </c>
       <c r="D68">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1034.30976982916</v>
+        <v>428.6137213992565</v>
       </c>
       <c r="C69">
-        <v>1609.358215624813</v>
+        <v>137.2447289794667</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E69">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,158 +1774,18 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>849.9216532965038</v>
+        <v>499.0406516785376</v>
       </c>
       <c r="C70">
-        <v>1111.058106247871</v>
+        <v>632.3242584161646</v>
       </c>
       <c r="D70">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1952.13982729765</v>
-      </c>
-      <c r="C71">
-        <v>536.3683639522957</v>
-      </c>
-      <c r="D71">
-        <v>55</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>887.0112444025577</v>
-      </c>
-      <c r="C72">
-        <v>1702.615626336732</v>
-      </c>
-      <c r="D72">
-        <v>11</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>930.8671121478069</v>
-      </c>
-      <c r="C73">
-        <v>1659.113014268727</v>
-      </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>465.0372858715351</v>
-      </c>
-      <c r="C74">
-        <v>-15.08661265871311</v>
-      </c>
-      <c r="D74">
-        <v>20</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>120.5691885786886</v>
-      </c>
-      <c r="C75">
-        <v>2041.417375547623</v>
-      </c>
-      <c r="D75">
-        <v>25</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>1884.018580421425</v>
-      </c>
-      <c r="C76">
-        <v>1033.788294168268</v>
-      </c>
-      <c r="D76">
-        <v>46</v>
-      </c>
-      <c r="E76">
-        <v>6</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>1236.082997412534</v>
-      </c>
-      <c r="C77">
-        <v>623.3994890920609</v>
-      </c>
-      <c r="D77">
-        <v>43</v>
-      </c>
-      <c r="E77">
-        <v>7</v>
-      </c>
-      <c r="F77">
         <v>1</v>
       </c>
     </row>
